--- a/docs/画面項目定義書/network_dashboard.xlsx
+++ b/docs/画面項目定義書/network_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F6AE4-E6BB-487D-8611-5066F46ECD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631FD530-2CEF-4920-97FD-7749A19D94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/docs/画面項目定義書/network_dashboard.xlsx
+++ b/docs/画面項目定義書/network_dashboard.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631FD530-2CEF-4920-97FD-7749A19D94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39611A9D-C6A1-4A8C-86F1-89EF139B5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>日本工学院</t>
   </si>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ref</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ページタイトル</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -182,6 +178,116 @@
     <t>プルダウンメニューを表示する</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ref(利用者メニューサイドバー)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編集ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ネットワークダッシュボード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想ネットワーク編集モーダルへ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -193,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +354,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -493,7 +606,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +710,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1136,21 +1261,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1286,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1170,7 +1295,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1179,7 +1304,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1188,7 +1313,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1201,8 +1326,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" s="40"/>
       <c r="C6" s="15"/>
       <c r="D6" s="19"/>
@@ -1210,7 +1337,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1219,7 +1346,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -1252,181 +1379,205 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5"/>
+      <c r="B17" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6"/>
+      <c r="B19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G20" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G21" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1435,7 +1586,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1444,7 +1595,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1453,7 +1604,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1462,7 +1613,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1471,7 +1622,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1480,7 +1631,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/network_dashboard.xlsx
+++ b/docs/画面項目定義書/network_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39611A9D-C6A1-4A8C-86F1-89EF139B5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503C784-8AC9-4B89-B716-1BD027323D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="12900" yWindow="3195" windowWidth="15465" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ネットワークID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>アドレス範囲</t>
     <rPh sb="4" eb="6">
       <t>ハンイ</t>
@@ -288,6 +284,22 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティを取得し、繰り返し表示</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -606,7 +618,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +714,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,18 +725,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -875,13 +878,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1259,23 +1262,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1289,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1295,7 +1298,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1304,7 +1307,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1313,11 +1316,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1326,18 +1329,18 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="40"/>
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="41"/>
       <c r="C6" s="15"/>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1346,7 +1349,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -1379,12 +1382,12 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -1399,7 +1402,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>14</v>
@@ -1409,14 +1412,14 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>16</v>
@@ -1426,12 +1429,14 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -1441,13 +1446,15 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6"/>
+      <c r="G13" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1456,128 +1463,124 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
+      <c r="G14" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
       <c r="B15" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
-      <c r="B17" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1586,7 +1589,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1595,7 +1598,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1604,7 +1607,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1613,7 +1616,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1622,23 +1625,14 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
